--- a/Demo/Demo.xlsx
+++ b/Demo/Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NeoDevelop\PowerPoint\PPrun\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Edsim++\Presentations\2024\#Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9197A1-F56B-4626-90B2-F99FFFAEA2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6310560D-2264-48FA-9E16-47D936C5FAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
     <sheet name="Voices" sheetId="5" r:id="rId2"/>
     <sheet name="Languages" sheetId="6" r:id="rId3"/>
-    <sheet name="Slide 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Slide 2" sheetId="56" r:id="rId5"/>
-    <sheet name="Slide 3" sheetId="57" r:id="rId6"/>
-    <sheet name="Slide 4" sheetId="58" r:id="rId7"/>
-    <sheet name="Slide 5" sheetId="59" r:id="rId8"/>
-    <sheet name="Slide 6" sheetId="60" r:id="rId9"/>
-    <sheet name="Slide 7" sheetId="61" r:id="rId10"/>
-    <sheet name="Slide 8" sheetId="62" r:id="rId11"/>
-    <sheet name="Slide 9" sheetId="63" r:id="rId12"/>
-    <sheet name="Slide 10" sheetId="64" r:id="rId13"/>
-    <sheet name="Slide 11" sheetId="65" r:id="rId14"/>
+    <sheet name="Slide 1" sheetId="69" r:id="rId4"/>
+    <sheet name="Slide 2" sheetId="1" r:id="rId5"/>
+    <sheet name="Slide 3" sheetId="56" r:id="rId6"/>
+    <sheet name="Slide 4" sheetId="57" r:id="rId7"/>
+    <sheet name="Slide 5" sheetId="58" r:id="rId8"/>
+    <sheet name="Slide 6" sheetId="59" r:id="rId9"/>
+    <sheet name="Slide 7" sheetId="60" r:id="rId10"/>
+    <sheet name="Slide 8" sheetId="61" r:id="rId11"/>
+    <sheet name="Slide 9" sheetId="62" r:id="rId12"/>
+    <sheet name="Slide 10" sheetId="63" r:id="rId13"/>
+    <sheet name="Slide 11" sheetId="64" r:id="rId14"/>
+    <sheet name="Slide 12" sheetId="65" r:id="rId15"/>
+    <sheet name="Slide 13" sheetId="71" r:id="rId16"/>
+    <sheet name="Slide 14" sheetId="66" r:id="rId17"/>
+    <sheet name="Slide 15" sheetId="67" r:id="rId18"/>
+    <sheet name="Slide 16" sheetId="68" r:id="rId19"/>
+    <sheet name="Slide 17" sheetId="70" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Languages!$A$3:$B$59</definedName>
@@ -52,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="736">
   <si>
     <t>Action</t>
   </si>
@@ -2187,9 +2193,6 @@
     <t>A dual monitor setup is an absolute requirement for using P-P-Run</t>
   </si>
   <si>
-    <t>The tool will typical run on the left monitor and the presentation on the right monitor</t>
-  </si>
-  <si>
     <t>Avoid the use of multi display software like Display Fusion because user interface elements of these applications may appear on the presentation screen</t>
   </si>
   <si>
@@ -2209,6 +2212,60 @@
   </si>
   <si>
     <t>Some minor text formatting may be lost in the process</t>
+  </si>
+  <si>
+    <t>Automation of office application can be associated with the following problems</t>
+  </si>
+  <si>
+    <t>Orphaned Excel or PowerPoint processes which require manual termination</t>
+  </si>
+  <si>
+    <t>Corrupted PowerPoint presentations when something goes wrong</t>
+  </si>
+  <si>
+    <t>Please always make a backup of your PowerPoint presentation</t>
+  </si>
+  <si>
+    <t>Automation error when file synchronization software tries to access the PowerPoint file during a presentation</t>
+  </si>
+  <si>
+    <t>Nieko is using this tool to create training videos for the software his company develops</t>
+  </si>
+  <si>
+    <t>This software is available as open source at GitHub</t>
+  </si>
+  <si>
+    <t>Make sure the console window has the focus when using these keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool will typical run on the left monitor </t>
+  </si>
+  <si>
+    <t>and the presentation on the right monitor</t>
+  </si>
+  <si>
+    <t>The names of the repositories are P-P-Run and P-P-Trans</t>
+  </si>
+  <si>
+    <t>We hope you have fun using and improving the software</t>
+  </si>
+  <si>
+    <t>Automation error cause by anti virus software</t>
+  </si>
+  <si>
+    <t>This software was created by Nico Punt who is a consultant specialized in Model Informed Precision Dosing at Medimatics</t>
+  </si>
+  <si>
+    <t>Do not forget to update the selected voice in the settings screen after translating the presentation script.</t>
+  </si>
+  <si>
+    <t>Otherwise you would be hearing me speaking French with an American accent like in the next sentence</t>
+  </si>
+  <si>
+    <t>N'oubliez pas de mettre à jour la voix sélectionnée dans l'écran des paramètres après avoir traduit le script de présentation</t>
+  </si>
+  <si>
+    <t>Sinon, vous m'entendrez parler français avec un accent américain comme dans la phrase suivante</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2667,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2755,7 @@
         <v>642</v>
       </c>
       <c r="B8" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2706,7 +2763,7 @@
         <v>643</v>
       </c>
       <c r="B9" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2842,11 +2899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A668EDCC-DC78-481E-A1DC-B024618D68D0}">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F84B4-7CA2-4D54-8176-36E50D30FCC9}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,36 +2941,36 @@
         <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>701</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>635</v>
@@ -2924,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,15 +2989,15 @@
         <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>635</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>708</v>
+        <v>1000</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,44 +3009,23 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>704</v>
-      </c>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>500</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>705</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>500</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>706</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>635</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>635</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -3094,6 +3130,10 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3102,420 +3142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0C138-1758-4B50-8A40-6A4D92DC4C00}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="200.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6E408-6265-4D84-9CD4-D768AE7435D4}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="200.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>500</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>500</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6849742A-8407-4CD9-8704-70935D534496}">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A668EDCC-DC78-481E-A1DC-B024618D68D0}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -3540,78 +3168,136 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>500</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>714</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
+        <v>500</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>500</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>1000</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6">
+        <v>500</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6">
+        <v>500</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="6">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6">
+        <v>500</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6">
+        <v>500</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6">
+        <v>500</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -3712,6 +3398,10 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,12 +3409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90971466-59D0-47E7-A7DD-8BE41A6A8015}">
-  <dimension ref="A1:B43"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0C138-1758-4B50-8A40-6A4D92DC4C00}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,8 +3435,666 @@
       <c r="A2" s="6">
         <v>1000</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6E408-6265-4D84-9CD4-D768AE7435D4}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>500</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>500</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6849742A-8407-4CD9-8704-70935D534496}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>500</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90971466-59D0-47E7-A7DD-8BE41A6A8015}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,16 +4134,912 @@
         <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>635</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E95B3D3-64FB-4DBF-A9E6-22AA788463D5}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>500</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>500</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA68460-3B08-44A5-88FD-C867A5DE763B}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>500</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AFBBCB-422A-474B-B792-C3D17F62346E}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FDD671-5CF1-4DA6-B6B6-A68BF12DBC7A}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -8937,6 +10181,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7896EFFE-7437-4E6A-8C0C-082D7BAEDFE5}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>8000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B59"/>
@@ -9420,12 +10862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A35C5E-B709-40F7-BFC4-6F7C5733B011}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9444,43 +10885,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>683</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>661</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>664</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>635</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -9488,10 +10913,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -9604,6 +11029,10 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9612,6 +11041,206 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="200.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89EFCF4-FFEE-4E2B-AB23-99A48EF9C78F}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -9827,7 +11456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF2454-08DE-4392-8CFD-1325AA63F26F}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -10047,7 +11676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A80F8B-865F-41F0-9925-3EA23ECF936D}">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -10323,12 +11952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61BBC7-A575-40A5-A2A3-C41576FCAE39}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10346,19 +11975,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>685</v>
+      <c r="B2" s="2" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10366,7 +11995,7 @@
         <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10374,7 +12003,7 @@
         <v>500</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10382,31 +12011,31 @@
         <v>500</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10414,27 +12043,35 @@
         <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
+        <v>500</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>500</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>1000</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -10552,240 +12189,13 @@
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F84B4-7CA2-4D54-8176-36E50D30FCC9}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="110.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="200.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>500</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>500</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>500</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/Demo.xlsx
+++ b/Demo/Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Edsim++\Presentations\2024\#Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6310560D-2264-48FA-9E16-47D936C5FAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E5BC0-2487-4FB5-B5E1-4F31FC049503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Slide 1" sheetId="69" r:id="rId4"/>
     <sheet name="Slide 2" sheetId="1" r:id="rId5"/>
     <sheet name="Slide 3" sheetId="56" r:id="rId6"/>
-    <sheet name="Slide 4" sheetId="57" r:id="rId7"/>
+    <sheet name="Slide 4" sheetId="72" r:id="rId7"/>
     <sheet name="Slide 5" sheetId="58" r:id="rId8"/>
     <sheet name="Slide 6" sheetId="59" r:id="rId9"/>
     <sheet name="Slide 7" sheetId="60" r:id="rId10"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="739">
   <si>
     <t>Action</t>
   </si>
@@ -2067,205 +2067,214 @@
     <t>and or texts in the PowerPoint presentation itself</t>
   </si>
   <si>
+    <t>In order to run the tools you must have the following installed:</t>
+  </si>
+  <si>
+    <t>Microsoft .NET 8 runtime</t>
+  </si>
+  <si>
+    <t>Microsoft Office 365</t>
+  </si>
+  <si>
+    <t>Google Cloud Console</t>
+  </si>
+  <si>
+    <t>Hardware Screen Recorder</t>
+  </si>
+  <si>
+    <t>Dual Monitor Setup</t>
+  </si>
+  <si>
+    <t>Video Editor Software</t>
+  </si>
+  <si>
+    <t>A Google account is required for calling the Google APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The P-P-Run and P-P-Trans apps use the local ADC file for this purpose </t>
+  </si>
+  <si>
+    <t>This is all very well documented on the Google Cloud website</t>
+  </si>
+  <si>
+    <t>These tools can be used for generating videos from PowerPoint presentations using an AI generated voice-over</t>
+  </si>
+  <si>
+    <t>ADC stands for Application Default Credentials which is created using the Google Cloud Console tool</t>
+  </si>
+  <si>
+    <t>The script for each slide is stored in a separate worksheet</t>
+  </si>
+  <si>
+    <t>Each sheet contains two columns</t>
+  </si>
+  <si>
+    <t>The Delay column contains a pause in milliseconds before executing the command stored in the Argument column</t>
+  </si>
+  <si>
+    <t>The argument column can contain a text to be spoken or a command</t>
+  </si>
+  <si>
+    <t>Command are represented using a special character</t>
+  </si>
+  <si>
+    <t>A hashtag for click</t>
+  </si>
+  <si>
+    <t>An ampersand for pause</t>
+  </si>
+  <si>
+    <t>A tilde for stopping the presentation</t>
+  </si>
+  <si>
+    <t>All other text is spoken out loud</t>
+  </si>
+  <si>
+    <t>The Google AI voice for a specific language is selected in the Settings sheet</t>
+  </si>
+  <si>
+    <t>Here you can also specify the speech settings like  Gain, Pitch and Rate</t>
+  </si>
+  <si>
+    <t>You can also control which slides must be shown using the First and Last settings</t>
+  </si>
+  <si>
+    <t>These settings are typically used in the creation phase of the script</t>
+  </si>
+  <si>
+    <t>Please note that Google supports 3 different classes of voices, all with different request limits</t>
+  </si>
+  <si>
+    <t>Avoid using the Journey class of voices because the request limit rate is simply too low for practical application</t>
+  </si>
+  <si>
+    <t>The Excel presentation script and the PowerPoint presentation must have the same name and should be in the same directory</t>
+  </si>
+  <si>
+    <t>You are all set if your folder contains the following three files</t>
+  </si>
+  <si>
+    <t>The PowerPoint presentation file</t>
+  </si>
+  <si>
+    <t>The Excel presentation script file</t>
+  </si>
+  <si>
+    <t>Open a command prompt in this folder and issue the following command assuming all files are contained in a directory called Work</t>
+  </si>
+  <si>
+    <t>You will receive spoken instructions on how to continue</t>
+  </si>
+  <si>
+    <t>Pause the presentation with the spacebar or abort using the escape key</t>
+  </si>
+  <si>
+    <t>Also copy the P-P-Run executable file into this directory</t>
+  </si>
+  <si>
+    <t>The P-P-Run executable file</t>
+  </si>
+  <si>
+    <t>You can record the screen using software like Overwolf or ShadowPlay that use the hardware of the graphics card</t>
+  </si>
+  <si>
+    <t>A dual monitor setup is an absolute requirement for using P-P-Run</t>
+  </si>
+  <si>
+    <t>Avoid the use of multi display software like Display Fusion because user interface elements of these applications may appear on the presentation screen</t>
+  </si>
+  <si>
+    <t>The video must be trimmed in order to remove unwanted recording at the start and the end</t>
+  </si>
+  <si>
+    <t>We recommend the Lossless Cut open source video trimmer that avoids having to re-encode the whole video</t>
+  </si>
+  <si>
+    <t>The P-P-Trans tool can be used to translate the presentation script or the PowerPoint presentation itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open a command prompt and issue the following command to translate the presentation script to German </t>
+  </si>
+  <si>
+    <t>Issue the following command to translate the PowerPoint presentation to German</t>
+  </si>
+  <si>
+    <t>Some minor text formatting may be lost in the process</t>
+  </si>
+  <si>
+    <t>Automation of office application can be associated with the following problems</t>
+  </si>
+  <si>
+    <t>Orphaned Excel or PowerPoint processes which require manual termination</t>
+  </si>
+  <si>
+    <t>Nieko is using this tool to create training videos for the software his company develops</t>
+  </si>
+  <si>
+    <t>This software is available as open source at GitHub</t>
+  </si>
+  <si>
+    <t>Make sure the console window has the focus when using these keys</t>
+  </si>
+  <si>
+    <t>and the presentation on the right monitor</t>
+  </si>
+  <si>
+    <t>The names of the repositories are P-P-Run and P-P-Trans</t>
+  </si>
+  <si>
+    <t>We hope you have fun using and improving the software</t>
+  </si>
+  <si>
+    <t>This software was created by Nico Punt who is a consultant specialized in Model Informed Precision Dosing at Medimatics</t>
+  </si>
+  <si>
+    <t>Do not forget to update the selected voice in the settings screen after translating the presentation script.</t>
+  </si>
+  <si>
+    <t>Otherwise you would be hearing me speaking French with an American accent like in the next sentence</t>
+  </si>
+  <si>
+    <t>N'oubliez pas de mettre à jour la voix sélectionnée dans l'écran des paramètres après avoir traduit le script de présentation</t>
+  </si>
+  <si>
+    <t>Sinon, vous m'entendrez parler français avec un accent américain comme dans la phrase suivante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool will typically run on the left monitor </t>
+  </si>
+  <si>
+    <t>Automation errors caused by anti virus software</t>
+  </si>
+  <si>
+    <t>Please note that P-P-Run creates a copy of the presentation in order to prevent corruption of the presentation file after a crash</t>
+  </si>
+  <si>
+    <t>Please note that the first script line must have a delay of at least 1000 milliseconds to prevent automation errors</t>
+  </si>
+  <si>
+    <t>Lower values will be overruled by the tool</t>
+  </si>
+  <si>
+    <t>Warming up sound player 1 2 3 4 5 6 7 8 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">P-P-Run makes use of application automation using the component object model interface </t>
   </si>
   <si>
     <t>It reads the presentation script by automating Excel and controls the presentation by automating PowerPoint</t>
   </si>
   <si>
+    <t>P-P-Run generates speech from text using the Google Cloud Voice API</t>
+  </si>
+  <si>
     <t>PPtrans translates text using the Google Cloud Translate API</t>
   </si>
   <si>
-    <t>P-P-Run generates speech from text using the Google Cloud Voice API</t>
-  </si>
-  <si>
-    <t>In order to run the tools you must have the following installed:</t>
-  </si>
-  <si>
-    <t>Microsoft .NET 8 runtime</t>
-  </si>
-  <si>
-    <t>Microsoft Office 365</t>
-  </si>
-  <si>
-    <t>Google Cloud Console</t>
-  </si>
-  <si>
-    <t>Hardware Screen Recorder</t>
-  </si>
-  <si>
-    <t>Dual Monitor Setup</t>
-  </si>
-  <si>
-    <t>Video Editor Software</t>
-  </si>
-  <si>
-    <t>A Google account is required for calling the Google APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The P-P-Run and P-P-Trans apps use the local ADC file for this purpose </t>
-  </si>
-  <si>
-    <t>This is all very well documented on the Google Cloud website</t>
-  </si>
-  <si>
-    <t>These tools can be used for generating videos from PowerPoint presentations using an AI generated voice-over</t>
-  </si>
-  <si>
-    <t>ADC stands for Application Default Credentials which is created using the Google Cloud Console tool</t>
-  </si>
-  <si>
-    <t>The script for each slide is stored in a separate worksheet</t>
-  </si>
-  <si>
-    <t>Each sheet contains two columns</t>
-  </si>
-  <si>
-    <t>The Delay column contains a pause in milliseconds before executing the command stored in the Argument column</t>
-  </si>
-  <si>
-    <t>The argument column can contain a text to be spoken or a command</t>
-  </si>
-  <si>
-    <t>Command are represented using a special character</t>
-  </si>
-  <si>
-    <t>A hashtag for click</t>
-  </si>
-  <si>
-    <t>An ampersand for pause</t>
-  </si>
-  <si>
-    <t>A tilde for stopping the presentation</t>
-  </si>
-  <si>
-    <t>All other text is spoken out loud</t>
-  </si>
-  <si>
-    <t>The Google AI voice for a specific language is selected in the Settings sheet</t>
-  </si>
-  <si>
-    <t>Here you can also specify the speech settings like  Gain, Pitch and Rate</t>
-  </si>
-  <si>
-    <t>You can also control which slides must be shown using the First and Last settings</t>
-  </si>
-  <si>
-    <t>These settings are typically used in the creation phase of the script</t>
-  </si>
-  <si>
-    <t>Please note that Google supports 3 different classes of voices, all with different request limits</t>
-  </si>
-  <si>
-    <t>Avoid using the Journey class of voices because the request limit rate is simply too low for practical application</t>
-  </si>
-  <si>
-    <t>The Excel presentation script and the PowerPoint presentation must have the same name and should be in the same directory</t>
-  </si>
-  <si>
-    <t>You are all set if your folder contains the following three files</t>
-  </si>
-  <si>
-    <t>The PowerPoint presentation file</t>
-  </si>
-  <si>
-    <t>The Excel presentation script file</t>
-  </si>
-  <si>
-    <t>Open a command prompt in this folder and issue the following command assuming all files are contained in a directory called Work</t>
-  </si>
-  <si>
-    <t>You will receive spoken instructions on how to continue</t>
-  </si>
-  <si>
-    <t>Pause the presentation with the spacebar or abort using the escape key</t>
-  </si>
-  <si>
-    <t>Also copy the P-P-Run executable file into this directory</t>
-  </si>
-  <si>
-    <t>The P-P-Run executable file</t>
-  </si>
-  <si>
-    <t>You can record the screen using software like Overwolf or ShadowPlay that use the hardware of the graphics card</t>
-  </si>
-  <si>
-    <t>A dual monitor setup is an absolute requirement for using P-P-Run</t>
-  </si>
-  <si>
-    <t>Avoid the use of multi display software like Display Fusion because user interface elements of these applications may appear on the presentation screen</t>
-  </si>
-  <si>
-    <t>The video must be trimmed in order to remove unwanted recording at the start and the end</t>
-  </si>
-  <si>
-    <t>We recommend the Lossless Cut open source video trimmer that avoids having to re-encode the whole video</t>
-  </si>
-  <si>
-    <t>The P-P-Trans tool can be used to translate the presentation script or the PowerPoint presentation itself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open a command prompt and issue the following command to translate the presentation script to German </t>
-  </si>
-  <si>
-    <t>Issue the following command to translate the PowerPoint presentation to German</t>
-  </si>
-  <si>
-    <t>Some minor text formatting may be lost in the process</t>
-  </si>
-  <si>
-    <t>Automation of office application can be associated with the following problems</t>
-  </si>
-  <si>
-    <t>Orphaned Excel or PowerPoint processes which require manual termination</t>
-  </si>
-  <si>
-    <t>Corrupted PowerPoint presentations when something goes wrong</t>
-  </si>
-  <si>
-    <t>Please always make a backup of your PowerPoint presentation</t>
-  </si>
-  <si>
-    <t>Automation error when file synchronization software tries to access the PowerPoint file during a presentation</t>
-  </si>
-  <si>
-    <t>Nieko is using this tool to create training videos for the software his company develops</t>
-  </si>
-  <si>
-    <t>This software is available as open source at GitHub</t>
-  </si>
-  <si>
-    <t>Make sure the console window has the focus when using these keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The tool will typical run on the left monitor </t>
-  </si>
-  <si>
-    <t>and the presentation on the right monitor</t>
-  </si>
-  <si>
-    <t>The names of the repositories are P-P-Run and P-P-Trans</t>
-  </si>
-  <si>
-    <t>We hope you have fun using and improving the software</t>
-  </si>
-  <si>
-    <t>Automation error cause by anti virus software</t>
-  </si>
-  <si>
-    <t>This software was created by Nico Punt who is a consultant specialized in Model Informed Precision Dosing at Medimatics</t>
-  </si>
-  <si>
-    <t>Do not forget to update the selected voice in the settings screen after translating the presentation script.</t>
-  </si>
-  <si>
-    <t>Otherwise you would be hearing me speaking French with an American accent like in the next sentence</t>
-  </si>
-  <si>
-    <t>N'oubliez pas de mettre à jour la voix sélectionnée dans l'écran des paramètres après avoir traduit le script de présentation</t>
-  </si>
-  <si>
-    <t>Sinon, vous m'entendrez parler français avec un accent américain comme dans la phrase suivante</t>
+    <t>Automation errors caused by PowerPoint Add-ins</t>
+  </si>
+  <si>
+    <t>We recommend to disable all Power-Point add-ins before running the tool</t>
   </si>
 </sst>
 </file>
@@ -2326,7 +2335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2348,6 +2357,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2666,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +2953,7 @@
         <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2977,7 @@
         <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3001,7 @@
         <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3196,7 @@
         <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3204,7 @@
         <v>500</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3284,7 @@
         <v>500</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3292,7 @@
         <v>500</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3300,7 @@
         <v>500</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3636,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3658,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3666,7 @@
         <v>500</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3698,7 @@
         <v>500</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +3892,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3900,7 @@
         <v>500</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4094,7 +4106,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4110,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4126,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4134,7 +4146,7 @@
         <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4344,7 @@
         <v>500</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4360,7 @@
         <v>500</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4368,7 @@
         <v>500</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4513,10 +4525,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA68460-3B08-44A5-88FD-C867A5DE763B}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4546,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4562,14 +4574,14 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1000</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>635</v>
       </c>
     </row>
@@ -4578,47 +4590,47 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>721</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>635</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1000</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>730</v>
+      <c r="B12" s="10" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4631,9 +4643,11 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -4742,22 +4756,6 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4792,7 +4790,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4798,7 @@
         <v>1000</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4998,7 +4996,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5014,7 +5012,7 @@
         <v>1000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5022,7 +5020,7 @@
         <v>4000</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10866,7 +10864,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10885,15 +10883,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2000</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -11046,7 +11048,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11076,7 +11078,7 @@
         <v>1000</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11457,11 +11459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF2454-08DE-4392-8CFD-1325AA63F26F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BF9C88-B2BE-4F71-B534-C980DD35EE6A}">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11499,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11507,7 +11509,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11531,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>672</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11547,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>671</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11711,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11743,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11759,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -11775,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11791,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11807,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -11823,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -11831,7 +11833,7 @@
         <v>500</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -11839,7 +11841,7 @@
         <v>500</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -11847,7 +11849,7 @@
         <v>500</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -11954,10 +11956,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61BBC7-A575-40A5-A2A3-C41576FCAE39}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11987,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11995,7 +11997,7 @@
         <v>500</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12003,7 +12005,7 @@
         <v>500</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12011,7 +12013,7 @@
         <v>500</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12027,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12035,7 +12037,7 @@
         <v>1000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12043,7 +12045,7 @@
         <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12051,7 +12053,7 @@
         <v>500</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12059,23 +12061,32 @@
         <v>500</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>500</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>1000</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -12188,14 +12199,6 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/Demo.xlsx
+++ b/Demo/Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenSource\PPrun\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E5BC0-2487-4FB5-B5E1-4F31FC049503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9413F24F-DB4D-4CEF-B19B-C0102CEC8F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="737">
   <si>
     <t>Action</t>
   </si>
@@ -2248,12 +2248,6 @@
   </si>
   <si>
     <t>Please note that P-P-Run creates a copy of the presentation in order to prevent corruption of the presentation file after a crash</t>
-  </si>
-  <si>
-    <t>Please note that the first script line must have a delay of at least 1000 milliseconds to prevent automation errors</t>
-  </si>
-  <si>
-    <t>Lower values will be overruled by the tool</t>
   </si>
   <si>
     <t>Warming up sound player 1 2 3 4 5 6 7 8 9</t>
@@ -2678,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -4527,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA68460-3B08-44A5-88FD-C867A5DE763B}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4606,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4608,7 @@
         <v>500</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10886,7 +10880,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11501,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11509,7 +11503,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11533,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11549,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11956,10 +11950,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61BBC7-A575-40A5-A2A3-C41576FCAE39}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12066,27 +12060,19 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>730</v>
+        <v>1000</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>500</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>731</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>635</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -12191,14 +12177,6 @@
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
